--- a/new_classification_db/N11 - BANK TRANSFERS.xlsx
+++ b/new_classification_db/N11 - BANK TRANSFERS.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="87">
   <si>
     <t xml:space="preserve">NOTIFICATION TYPE</t>
   </si>
@@ -106,12 +106,12 @@
     <t xml:space="preserve">TRANSFERENCIA DE DINERO</t>
   </si>
   <si>
+    <t xml:space="preserve">REALIZAR TRANSFERENCIA BANCARIA</t>
+  </si>
+  <si>
     <t xml:space="preserve">TRANSFERIR</t>
   </si>
   <si>
-    <t xml:space="preserve">REALIZAR TRANSFERENCIA BANCARIA</t>
-  </si>
-  <si>
     <t xml:space="preserve">LA CUANTÍA</t>
   </si>
   <si>
@@ -154,18 +154,18 @@
     <t xml:space="preserve">POR MEDIO DE TRANSFERENCIA</t>
   </si>
   <si>
+    <t xml:space="preserve">TRANSFERENCIA AL NÚMERO DE CUENTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROCEDASE AL PAGO</t>
+  </si>
+  <si>
     <t xml:space="preserve">MEDIANTE </t>
   </si>
   <si>
     <t xml:space="preserve">TRANSFERENCIA</t>
   </si>
   <si>
-    <t xml:space="preserve">TRANSFERENCIA AL NÚMERO DE CUENTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROCEDASE AL PAGO</t>
-  </si>
-  <si>
     <t xml:space="preserve">HACER ENTREGA</t>
   </si>
   <si>
@@ -178,15 +178,15 @@
     <t xml:space="preserve">HÁGASE PAGO</t>
   </si>
   <si>
-    <t xml:space="preserve">PAGO</t>
-  </si>
-  <si>
     <t xml:space="preserve">SE HA PROCEDIDO A ENTREGAR</t>
   </si>
   <si>
     <t xml:space="preserve">ENTREGA DE DINERO</t>
   </si>
   <si>
+    <t xml:space="preserve">POR TRANSFERENCIA</t>
+  </si>
+  <si>
     <t xml:space="preserve">A CUENTA DEL PRINCIPAL</t>
   </si>
   <si>
@@ -202,7 +202,13 @@
     <t xml:space="preserve">EXPEDIR AL EFECTO EL CORRESPONDIENTE TRANSFERENCIA DE PAGO</t>
   </si>
   <si>
-    <t xml:space="preserve">TRANSFIERASE</t>
+    <t xml:space="preserve">TRANSFERIR LA CITADA CANTIDAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE LAS CANTIDADES CONSIGNADAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COPIA DE TRANSFERENCIA</t>
   </si>
   <si>
     <t xml:space="preserve">N11 - AMOUNT</t>
@@ -284,7 +290,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -335,6 +341,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -434,7 +446,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -487,6 +499,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -500,6 +516,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -584,22 +604,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z132"/>
+  <dimension ref="A1:Z120"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A93" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B103" activeCellId="0" sqref="B103"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A94" activeCellId="0" sqref="A94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.780612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="65.7142857142857"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="48.4897959183674"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="43.765306122449"/>
-    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.3724489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="64.9285714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="47.7857142857143"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="43.1989795918367"/>
+    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="13.9030612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -869,12 +889,8 @@
       <c r="B21" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
@@ -885,8 +901,12 @@
       <c r="B22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="3"/>
+      <c r="C22" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
@@ -895,13 +915,13 @@
         <v>2</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -911,13 +931,13 @@
         <v>2</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>5</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -927,14 +947,10 @@
         <v>2</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>32</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
@@ -943,7 +959,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="3"/>
@@ -955,7 +971,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="3"/>
@@ -967,7 +983,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="3"/>
@@ -979,7 +995,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C29" s="12"/>
       <c r="D29" s="3"/>
@@ -991,30 +1007,34 @@
         <v>2</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="3"/>
+        <v>38</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>5</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
         <v>2</v>
       </c>
@@ -1025,7 +1045,7 @@
         <v>5</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -1041,12 +1061,12 @@
         <v>5</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
         <v>2</v>
       </c>
@@ -1057,145 +1077,141 @@
         <v>5</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>5</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F35" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="C36" s="12" t="s">
         <v>5</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>5</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="E37" s="3"/>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B38" s="3" t="s">
+      <c r="C38" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
     </row>
     <row r="39" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>5</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-    </row>
-    <row r="41" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>5</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C42" s="12" t="s">
         <v>5</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -1205,18 +1221,16 @@
         <v>2</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>5</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="E43" s="3"/>
-      <c r="F43" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="F43" s="3"/>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
@@ -1229,7 +1243,7 @@
         <v>5</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -1239,13 +1253,13 @@
         <v>2</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>5</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -1255,13 +1269,13 @@
         <v>2</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C46" s="12" t="s">
         <v>5</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -1271,33 +1285,29 @@
         <v>2</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C47" s="12" t="s">
         <v>5</v>
       </c>
       <c r="D47" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -1307,31 +1317,25 @@
         <v>2</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>5</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C49" s="12"/>
       <c r="D49" s="3" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="E49" s="3"/>
-      <c r="F49" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>5</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C50" s="12"/>
       <c r="D50" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -1341,197 +1345,175 @@
         <v>2</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>5</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C51" s="12"/>
       <c r="D51" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
     </row>
-    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>5</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C52" s="12"/>
       <c r="D52" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
     </row>
-    <row r="53" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>5</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C53" s="12"/>
       <c r="D53" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+    </row>
+    <row r="54" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>5</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C54" s="12"/>
       <c r="D54" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
     </row>
-    <row r="55" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>5</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C55" s="12"/>
       <c r="D55" s="3" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="E55" s="3"/>
-      <c r="F55" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F55" s="3"/>
+    </row>
+    <row r="56" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C56" s="12"/>
       <c r="D56" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C57" s="12"/>
       <c r="D57" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
     </row>
-    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C58" s="12"/>
       <c r="D58" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
     </row>
-    <row r="59" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C59" s="12"/>
       <c r="D59" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>43</v>
+      </c>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+    </row>
+    <row r="60" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C60" s="12"/>
       <c r="D60" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
     </row>
-    <row r="61" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C61" s="12"/>
       <c r="D61" s="3" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="E61" s="3"/>
-      <c r="F61" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F61" s="3"/>
+    </row>
+    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C62" s="12"/>
       <c r="D62" s="3" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
     </row>
-    <row r="63" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C63" s="12"/>
       <c r="D63" s="3" t="s">
@@ -1540,12 +1522,12 @@
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
     </row>
-    <row r="64" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C64" s="12"/>
       <c r="D64" s="3" t="s">
@@ -1554,205 +1536,189 @@
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
     </row>
-    <row r="65" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C65" s="12"/>
       <c r="D65" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E65" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+    </row>
+    <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C66" s="12"/>
       <c r="D66" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
     </row>
-    <row r="67" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C67" s="12"/>
       <c r="D67" s="3" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="E67" s="3"/>
-      <c r="F67" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F67" s="3"/>
+    </row>
+    <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C68" s="12"/>
       <c r="D68" s="3" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
     </row>
-    <row r="69" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C69" s="12"/>
       <c r="D69" s="3" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
     </row>
-    <row r="70" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C70" s="12"/>
       <c r="D70" s="3" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
     </row>
-    <row r="71" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C71" s="12"/>
       <c r="D71" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>55</v>
+      </c>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+    </row>
+    <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C72" s="12"/>
       <c r="D72" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C73" s="12"/>
-      <c r="D73" s="3" t="s">
-        <v>26</v>
+      <c r="D73" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="E73" s="3"/>
-      <c r="F73" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F73" s="3"/>
+    </row>
+    <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C74" s="12"/>
-      <c r="D74" s="3" t="s">
-        <v>41</v>
+      <c r="D74" s="13" t="s">
+        <v>42</v>
       </c>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
     </row>
-    <row r="75" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C75" s="12"/>
-      <c r="D75" s="3" t="s">
-        <v>42</v>
+      <c r="D75" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
     </row>
-    <row r="76" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C76" s="12"/>
-      <c r="D76" s="3" t="s">
-        <v>43</v>
+      <c r="D76" s="13" t="s">
+        <v>54</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
     </row>
-    <row r="77" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C77" s="12"/>
       <c r="D77" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>55</v>
+      </c>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+    </row>
+    <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="3" t="s">
         <v>2</v>
       </c>
@@ -1761,7 +1727,7 @@
       </c>
       <c r="C78" s="12"/>
       <c r="D78" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
@@ -1771,12 +1737,10 @@
         <v>2</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="C79" s="12"/>
-      <c r="D79" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="D79" s="3"/>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
     </row>
@@ -1785,11 +1749,13 @@
         <v>2</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C80" s="12"/>
+        <v>29</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="D80" s="3" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
@@ -1799,11 +1765,13 @@
         <v>2</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C81" s="12"/>
+        <v>29</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="D81" s="3" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
@@ -1813,12 +1781,10 @@
         <v>2</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C82" s="12"/>
-      <c r="D82" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="D82" s="3"/>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
     </row>
@@ -1827,30 +1793,22 @@
         <v>2</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C83" s="12"/>
-      <c r="D83" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
     </row>
     <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C84" s="12"/>
-      <c r="D84" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="D84" s="3"/>
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
     </row>
@@ -1858,648 +1816,443 @@
       <c r="A85" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B85" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C85" s="12"/>
-      <c r="D85" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
+      <c r="B85" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D85" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E85" s="15"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="15"/>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="15"/>
+      <c r="K85" s="15"/>
+      <c r="L85" s="15"/>
+      <c r="M85" s="15"/>
+      <c r="N85" s="15"/>
+      <c r="O85" s="15"/>
+      <c r="P85" s="15"/>
+      <c r="Q85" s="15"/>
+      <c r="R85" s="15"/>
+      <c r="S85" s="15"/>
+      <c r="T85" s="15"/>
+      <c r="U85" s="15"/>
+      <c r="V85" s="15"/>
+      <c r="W85" s="15"/>
+      <c r="X85" s="15"/>
+      <c r="Y85" s="15"/>
+      <c r="Z85" s="15"/>
     </row>
     <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B86" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C86" s="12"/>
-      <c r="D86" s="3" t="s">
+      <c r="B86" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C86" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="15"/>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="15"/>
+      <c r="K86" s="15"/>
+      <c r="L86" s="15"/>
+      <c r="M86" s="15"/>
+      <c r="N86" s="15"/>
+      <c r="O86" s="15"/>
+      <c r="P86" s="15"/>
+      <c r="Q86" s="15"/>
+      <c r="R86" s="15"/>
+      <c r="S86" s="15"/>
+      <c r="T86" s="15"/>
+      <c r="U86" s="15"/>
+      <c r="V86" s="15"/>
+      <c r="W86" s="15"/>
+      <c r="X86" s="15"/>
+      <c r="Y86" s="15"/>
+      <c r="Z86" s="15"/>
     </row>
     <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B87" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C87" s="12"/>
-      <c r="D87" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
-    </row>
-    <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B88" s="3" t="s">
+      <c r="B87" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="15"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="15"/>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="15"/>
+      <c r="K87" s="15"/>
+      <c r="L87" s="15"/>
+      <c r="M87" s="15"/>
+      <c r="N87" s="15"/>
+      <c r="O87" s="15"/>
+      <c r="P87" s="15"/>
+      <c r="Q87" s="15"/>
+      <c r="R87" s="15"/>
+      <c r="S87" s="15"/>
+      <c r="T87" s="15"/>
+      <c r="U87" s="15"/>
+      <c r="V87" s="15"/>
+      <c r="W87" s="15"/>
+      <c r="X87" s="15"/>
+      <c r="Y87" s="15"/>
+      <c r="Z87" s="15"/>
+    </row>
+    <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A88" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D88" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A89" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D89" s="17"/>
+    </row>
+    <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A90" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D90" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A91" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B91" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="C88" s="12"/>
-      <c r="D88" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
-    </row>
-    <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C89" s="12"/>
-      <c r="D89" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
-    </row>
-    <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C90" s="12"/>
-      <c r="D90" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
-    </row>
-    <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B91" s="3" t="s">
+      <c r="D91" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A92" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B92" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C91" s="12"/>
-      <c r="D91" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
-    </row>
-    <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C92" s="12"/>
-      <c r="D92" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E92" s="3"/>
-      <c r="F92" s="3"/>
-    </row>
-    <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C93" s="12"/>
-      <c r="D93" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E93" s="3"/>
-      <c r="F93" s="3"/>
-    </row>
-    <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C94" s="12"/>
-      <c r="D94" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E94" s="3"/>
-      <c r="F94" s="3"/>
-    </row>
-    <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C95" s="12"/>
-      <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
-    </row>
-    <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C96" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
-    </row>
-    <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C97" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E97" s="3"/>
-      <c r="F97" s="3"/>
-    </row>
-    <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C98" s="12"/>
-      <c r="D98" s="3"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
-    </row>
-    <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C99" s="12"/>
-      <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
-    </row>
-    <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="3" t="s">
-        <v>2</v>
+      <c r="D92" s="17"/>
+    </row>
+    <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A93" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B93" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D93" s="17"/>
+    </row>
+    <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A94" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B94" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C94" s="16"/>
+      <c r="D94" s="16"/>
+    </row>
+    <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A95" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B95" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C95" s="16"/>
+      <c r="D95" s="16"/>
+    </row>
+    <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A96" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B96" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C96" s="16"/>
+      <c r="D96" s="16"/>
+    </row>
+    <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A97" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B97" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C97" s="16"/>
+      <c r="D97" s="16"/>
+    </row>
+    <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A98" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B98" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C98" s="16"/>
+      <c r="D98" s="16"/>
+    </row>
+    <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A99" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B99" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C99" s="16"/>
+      <c r="D99" s="16"/>
+    </row>
+    <row r="100" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A100" s="16" t="s">
+        <v>63</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C100" s="12"/>
+        <v>70</v>
+      </c>
+      <c r="C100" s="3"/>
       <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
-      <c r="F100" s="3"/>
-    </row>
-    <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B101" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C101" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D101" s="13" t="s">
+      <c r="E100" s="15"/>
+      <c r="F100" s="15"/>
+    </row>
+    <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A101" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="15"/>
+      <c r="F101" s="15"/>
+    </row>
+    <row r="102" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A102" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
+    </row>
+    <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A103" s="15"/>
+      <c r="B103" s="15"/>
+      <c r="C103" s="15"/>
+      <c r="D103" s="15"/>
+      <c r="F103" s="15"/>
+    </row>
+    <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C104" s="16"/>
+      <c r="D104" s="16"/>
+      <c r="F104" s="15"/>
+    </row>
+    <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A105" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B105" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F105" s="19"/>
+    </row>
+    <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A106" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C106" s="16"/>
+      <c r="D106" s="16"/>
+      <c r="F106" s="19"/>
+    </row>
+    <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A107" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C107" s="16"/>
+      <c r="D107" s="16"/>
+      <c r="F107" s="19"/>
+    </row>
+    <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A108" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C108" s="16"/>
+      <c r="D108" s="16"/>
+      <c r="F108" s="19"/>
+    </row>
+    <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A109" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C109" s="16"/>
+      <c r="D109" s="16"/>
+      <c r="F109" s="19"/>
+    </row>
+    <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A110" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C110" s="16"/>
+      <c r="D110" s="16"/>
+      <c r="F110" s="19"/>
+    </row>
+    <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A111" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C111" s="16"/>
+      <c r="D111" s="16"/>
+      <c r="F111" s="19"/>
+    </row>
+    <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A112" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C112" s="16"/>
+      <c r="D112" s="16"/>
+      <c r="F112" s="19"/>
+    </row>
+    <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A113" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B113" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14"/>
-      <c r="G101" s="14"/>
-      <c r="H101" s="14"/>
-      <c r="I101" s="14"/>
-      <c r="J101" s="14"/>
-      <c r="K101" s="14"/>
-      <c r="L101" s="14"/>
-      <c r="M101" s="14"/>
-      <c r="N101" s="14"/>
-      <c r="O101" s="14"/>
-      <c r="P101" s="14"/>
-      <c r="Q101" s="14"/>
-      <c r="R101" s="14"/>
-      <c r="S101" s="14"/>
-      <c r="T101" s="14"/>
-      <c r="U101" s="14"/>
-      <c r="V101" s="14"/>
-      <c r="W101" s="14"/>
-      <c r="X101" s="14"/>
-      <c r="Y101" s="14"/>
-      <c r="Z101" s="14"/>
-    </row>
-    <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A102" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B102" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C102" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D102" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
-      <c r="G102" s="14"/>
-      <c r="H102" s="14"/>
-      <c r="I102" s="14"/>
-      <c r="J102" s="14"/>
-      <c r="K102" s="14"/>
-      <c r="L102" s="14"/>
-      <c r="M102" s="14"/>
-      <c r="N102" s="14"/>
-      <c r="O102" s="14"/>
-      <c r="P102" s="14"/>
-      <c r="Q102" s="14"/>
-      <c r="R102" s="14"/>
-      <c r="S102" s="14"/>
-      <c r="T102" s="14"/>
-      <c r="U102" s="14"/>
-      <c r="V102" s="14"/>
-      <c r="W102" s="14"/>
-      <c r="X102" s="14"/>
-      <c r="Y102" s="14"/>
-      <c r="Z102" s="14"/>
-    </row>
-    <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B103" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C103" s="13"/>
-      <c r="D103" s="13"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14"/>
-      <c r="G103" s="14"/>
-      <c r="H103" s="14"/>
-      <c r="I103" s="14"/>
-      <c r="J103" s="14"/>
-      <c r="K103" s="14"/>
-      <c r="L103" s="14"/>
-      <c r="M103" s="14"/>
-      <c r="N103" s="14"/>
-      <c r="O103" s="14"/>
-      <c r="P103" s="14"/>
-      <c r="Q103" s="14"/>
-      <c r="R103" s="14"/>
-      <c r="S103" s="14"/>
-      <c r="T103" s="14"/>
-      <c r="U103" s="14"/>
-      <c r="V103" s="14"/>
-      <c r="W103" s="14"/>
-      <c r="X103" s="14"/>
-      <c r="Y103" s="14"/>
-      <c r="Z103" s="14"/>
-    </row>
-    <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B104" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C104" s="13"/>
-      <c r="D104" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14"/>
-      <c r="G104" s="14"/>
-      <c r="H104" s="14"/>
-      <c r="I104" s="14"/>
-      <c r="J104" s="14"/>
-      <c r="K104" s="14"/>
-      <c r="L104" s="14"/>
-      <c r="M104" s="14"/>
-      <c r="N104" s="14"/>
-      <c r="O104" s="14"/>
-      <c r="P104" s="14"/>
-      <c r="Q104" s="14"/>
-      <c r="R104" s="14"/>
-      <c r="S104" s="14"/>
-      <c r="T104" s="14"/>
-      <c r="U104" s="14"/>
-      <c r="V104" s="14"/>
-      <c r="W104" s="14"/>
-      <c r="X104" s="14"/>
-      <c r="Y104" s="14"/>
-      <c r="Z104" s="14"/>
-    </row>
-    <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B105" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D105" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B106" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C106" s="15"/>
-      <c r="D106" s="15"/>
-    </row>
-    <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A107" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B107" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C107" s="15"/>
-      <c r="D107" s="15"/>
-    </row>
-    <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A108" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B108" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C108" s="15"/>
-      <c r="D108" s="15"/>
-    </row>
-    <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A109" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B109" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C109" s="15"/>
-      <c r="D109" s="15"/>
-    </row>
-    <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A110" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B110" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C110" s="15"/>
-      <c r="D110" s="15"/>
-    </row>
-    <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A111" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B111" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C111" s="15"/>
-      <c r="D111" s="15"/>
-    </row>
-    <row r="112" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C112" s="3"/>
-      <c r="D112" s="3"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="14"/>
-    </row>
-    <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A113" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C113" s="3"/>
-      <c r="D113" s="3"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="14"/>
-    </row>
-    <row r="114" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="15" t="s">
-        <v>61</v>
+      <c r="C113" s="16"/>
+      <c r="D113" s="16"/>
+      <c r="F113" s="19"/>
+    </row>
+    <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A114" s="16" t="s">
+        <v>2</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C114" s="3"/>
-      <c r="D114" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="C114" s="16"/>
+      <c r="D114" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F114" s="19"/>
     </row>
     <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A115" s="14"/>
-      <c r="B115" s="14"/>
-      <c r="C115" s="14"/>
-      <c r="D115" s="14"/>
-      <c r="F115" s="14"/>
+      <c r="A115" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C115" s="16"/>
+      <c r="D115" s="16"/>
+      <c r="F115" s="19"/>
     </row>
     <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A116" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C116" s="15"/>
-      <c r="D116" s="15"/>
-      <c r="F116" s="14"/>
+      <c r="A116" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A117" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B117" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F117" s="17"/>
+      <c r="A117" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A118" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C118" s="15"/>
-      <c r="D118" s="15"/>
-      <c r="F118" s="17"/>
+      <c r="A118" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A119" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C119" s="15"/>
-      <c r="D119" s="15"/>
-      <c r="F119" s="17"/>
+      <c r="A119" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A120" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C120" s="15"/>
-      <c r="D120" s="15"/>
-      <c r="F120" s="17"/>
-    </row>
-    <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A121" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C121" s="15"/>
-      <c r="D121" s="15"/>
-      <c r="F121" s="17"/>
-    </row>
-    <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A122" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C122" s="15"/>
-      <c r="D122" s="15"/>
-      <c r="F122" s="17"/>
-    </row>
-    <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A123" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C123" s="15"/>
-      <c r="D123" s="15"/>
-      <c r="F123" s="17"/>
-    </row>
-    <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A124" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C124" s="15"/>
-      <c r="D124" s="15"/>
-      <c r="F124" s="17"/>
-    </row>
-    <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A125" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C125" s="15"/>
-      <c r="D125" s="15"/>
-      <c r="F125" s="17"/>
-    </row>
-    <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A126" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C126" s="15"/>
-      <c r="D126" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="F126" s="17"/>
-    </row>
-    <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A127" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C127" s="15"/>
-      <c r="D127" s="15"/>
-      <c r="F127" s="17"/>
-    </row>
-    <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A128" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B128" s="0" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A129" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B129" s="0" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A130" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B130" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A131" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B131" s="0" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A132" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B132" s="0" t="s">
-        <v>84</v>
+      <c r="A120" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/new_classification_db/N11 - BANK TRANSFERS.xlsx
+++ b/new_classification_db/N11 - BANK TRANSFERS.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="86">
   <si>
     <t xml:space="preserve">NOTIFICATION TYPE</t>
   </si>
@@ -206,9 +206,6 @@
   </si>
   <si>
     <t xml:space="preserve">DE LAS CANTIDADES CONSIGNADAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COPIA DE TRANSFERENCIA</t>
   </si>
   <si>
     <t xml:space="preserve">N11 - AMOUNT</t>
@@ -290,7 +287,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -341,12 +338,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -446,7 +437,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -516,10 +507,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -604,22 +591,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z120"/>
+  <dimension ref="A1:Z119"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A94" activeCellId="0" sqref="A94"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A81" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A93" activeCellId="0" sqref="A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.3724489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="64.9285714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="47.7857142857143"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="43.1989795918367"/>
-    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.1020408163265"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="64.1224489795918"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="47.1122448979592"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="42.6581632653061"/>
+    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="13.6326530612245"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1943,7 +1930,7 @@
       <c r="B90" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="D90" s="18" t="s">
+      <c r="D90" s="17" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1969,16 +1956,17 @@
     </row>
     <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B93" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D93" s="17"/>
+      <c r="B93" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C93" s="16"/>
+      <c r="D93" s="16"/>
     </row>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B94" s="16" t="s">
         <v>64</v>
@@ -1988,7 +1976,7 @@
     </row>
     <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B95" s="16" t="s">
         <v>65</v>
@@ -1998,7 +1986,7 @@
     </row>
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B96" s="16" t="s">
         <v>66</v>
@@ -2008,7 +1996,7 @@
     </row>
     <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B97" s="16" t="s">
         <v>67</v>
@@ -2018,7 +2006,7 @@
     </row>
     <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B98" s="16" t="s">
         <v>68</v>
@@ -2026,19 +2014,21 @@
       <c r="C98" s="16"/>
       <c r="D98" s="16"/>
     </row>
-    <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B99" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B99" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C99" s="16"/>
-      <c r="D99" s="16"/>
-    </row>
-    <row r="100" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="15"/>
+      <c r="F99" s="15"/>
+    </row>
+    <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>70</v>
@@ -2048,60 +2038,59 @@
       <c r="E100" s="15"/>
       <c r="F100" s="15"/>
     </row>
-    <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
-      <c r="E101" s="15"/>
-      <c r="F101" s="15"/>
-    </row>
-    <row r="102" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A102" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B102" s="3" t="s">
+    </row>
+    <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A102" s="15"/>
+      <c r="B102" s="15"/>
+      <c r="C102" s="15"/>
+      <c r="D102" s="15"/>
+      <c r="F102" s="15"/>
+    </row>
+    <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C102" s="3"/>
-      <c r="D102" s="3"/>
-    </row>
-    <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="15"/>
-      <c r="B103" s="15"/>
-      <c r="C103" s="15"/>
-      <c r="D103" s="15"/>
+      <c r="B103" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C103" s="16"/>
+      <c r="D103" s="16"/>
       <c r="F103" s="15"/>
     </row>
     <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="1" t="s">
+      <c r="A104" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B104" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C104" s="16"/>
-      <c r="D104" s="16"/>
-      <c r="F104" s="15"/>
+      <c r="C104" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F104" s="18"/>
     </row>
     <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B105" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D105" s="3" t="s">
+      <c r="B105" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F105" s="19"/>
+      <c r="C105" s="16"/>
+      <c r="D105" s="16"/>
+      <c r="F105" s="18"/>
     </row>
     <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="16" t="s">
@@ -2112,7 +2101,7 @@
       </c>
       <c r="C106" s="16"/>
       <c r="D106" s="16"/>
-      <c r="F106" s="19"/>
+      <c r="F106" s="18"/>
     </row>
     <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="16" t="s">
@@ -2123,7 +2112,7 @@
       </c>
       <c r="C107" s="16"/>
       <c r="D107" s="16"/>
-      <c r="F107" s="19"/>
+      <c r="F107" s="18"/>
     </row>
     <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="16" t="s">
@@ -2134,7 +2123,7 @@
       </c>
       <c r="C108" s="16"/>
       <c r="D108" s="16"/>
-      <c r="F108" s="19"/>
+      <c r="F108" s="18"/>
     </row>
     <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="16" t="s">
@@ -2145,7 +2134,7 @@
       </c>
       <c r="C109" s="16"/>
       <c r="D109" s="16"/>
-      <c r="F109" s="19"/>
+      <c r="F109" s="18"/>
     </row>
     <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="16" t="s">
@@ -2156,40 +2145,42 @@
       </c>
       <c r="C110" s="16"/>
       <c r="D110" s="16"/>
-      <c r="F110" s="19"/>
+      <c r="F110" s="18"/>
     </row>
     <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="16" t="s">
         <v>2</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="C111" s="16"/>
       <c r="D111" s="16"/>
-      <c r="F111" s="19"/>
+      <c r="F111" s="18"/>
     </row>
     <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="16" t="s">
         <v>2</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="C112" s="16"/>
       <c r="D112" s="16"/>
-      <c r="F112" s="19"/>
+      <c r="F112" s="18"/>
     </row>
     <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="16" t="s">
         <v>2</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="C113" s="16"/>
-      <c r="D113" s="16"/>
-      <c r="F113" s="19"/>
+      <c r="D113" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F113" s="18"/>
     </row>
     <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="16" t="s">
@@ -2199,28 +2190,23 @@
         <v>82</v>
       </c>
       <c r="C114" s="16"/>
-      <c r="D114" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="F114" s="19"/>
+      <c r="D114" s="16"/>
+      <c r="F114" s="18"/>
     </row>
     <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B115" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C115" s="16"/>
-      <c r="D115" s="16"/>
-      <c r="F115" s="19"/>
+      <c r="B115" s="0" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="16" t="s">
         <v>2</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2228,7 +2214,7 @@
         <v>2</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2236,7 +2222,7 @@
         <v>2</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2245,14 +2231,6 @@
       </c>
       <c r="B119" s="0" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A120" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B120" s="0" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
